--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -898,20 +898,14 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
-    <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <xsd:import namespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+    <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -920,14 +914,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -935,7 +923,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95645557-b925-4e14-b9c3-bb0dccab904e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -948,59 +936,15 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{934fa774-6324-4670-aa1a-daa689219115}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be4b9af-ad17-4489-a21e-b8b210aeb5f9">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1116,7 +1060,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687E8A62-891A-445A-ABD0-8191DD849968}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7A0350-CEEB-46C7-9894-CFA146D1C694}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -898,14 +898,20 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
-    <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
+    <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <xsd:import namespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -914,8 +920,14 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -923,7 +935,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95645557-b925-4e14-b9c3-bb0dccab904e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -936,15 +948,59 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{934fa774-6324-4670-aa1a-daa689219115}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be4b9af-ad17-4489-a21e-b8b210aeb5f9">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1060,7 +1116,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7A0350-CEEB-46C7-9894-CFA146D1C694}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687E8A62-891A-445A-ABD0-8191DD849968}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
